--- a/data/trans_camb/P16B11-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B11-Estudios-trans_camb.xlsx
@@ -554,7 +554,7 @@
       </c>
       <c r="D2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="E2" s="3" t="inlineStr">
@@ -564,7 +564,7 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
@@ -574,7 +574,7 @@
       </c>
       <c r="H2" s="3" t="inlineStr">
         <is>
-          <t>2015/2007</t>
+          <t>2016/2007</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B11-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B11-Estudios-trans_camb.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal cambio" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Cambio" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -601,32 +601,32 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,47</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,84</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>0,91</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,08</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,23</t>
         </is>
       </c>
     </row>
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,32; 3,54</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,66; 3,95</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 2,18</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,14; 2,29</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 2,17</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 2,24</t>
         </is>
       </c>
     </row>
@@ -677,32 +677,32 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,85%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,09%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,25%</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,31; 3,68</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,67; 4,11</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 2,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-0,12; 2,35</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,29; 2,22</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,38; 2,3</t>
         </is>
       </c>
     </row>
@@ -757,32 +757,32 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,33</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,52</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,59</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,05; 9,1</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,08; 8,52</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 8,38</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 8,61</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,44; 7,09</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,35; 7,13</t>
         </is>
       </c>
     </row>
@@ -833,32 +833,32 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,78%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,47%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,7%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,66%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,73%</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,06; 10,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 9,31</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,01; 9,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,52; 9,45</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,47; 7,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,37; 7,7</t>
         </is>
       </c>
     </row>
@@ -913,32 +913,32 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,93</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>6,58</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,76</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>3,76</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,05</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 20,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 19,96</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 10,24</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,15; 10,34</t>
         </is>
       </c>
     </row>
@@ -989,32 +989,32 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>7,05%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>3,91%</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 9,96</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 10,98</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 25,87</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,0; 24,94</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,17; 11,41</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 11,53</t>
         </is>
       </c>
     </row>
@@ -1069,32 +1069,32 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,1</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>2,27</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,53</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,61</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,78</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,0</t>
+          <t>1,9</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,84; 3,97</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,14; 4,2</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 2,96</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,45; 2,95</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,9; 2,79</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,09; 2,9</t>
         </is>
       </c>
     </row>
@@ -1145,32 +1145,32 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,15%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>2,33%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,56%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,81%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>1,94%</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,86; 4,14</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,16; 4,39</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,48; 3,06</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,44; 3,04</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>0,91; 2,87</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>1,1; 2,99</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P16B11-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P16B11-Estudios-trans_camb.xlsx
@@ -639,32 +639,32 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>0,32; 3,54</t>
+          <t>0,15; 3,56</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>0,66; 3,95</t>
+          <t>0,68; 3,84</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 2,18</t>
+          <t>-0,17; 2,17</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 2,29</t>
+          <t>-0,13; 2,21</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,17</t>
+          <t>0,21; 2,13</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,24</t>
+          <t>0,38; 2,3</t>
         </is>
       </c>
     </row>
@@ -715,32 +715,32 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>0,31; 3,68</t>
+          <t>0,15; 3,7</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>0,67; 4,11</t>
+          <t>0,69; 4,0</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 2,23</t>
+          <t>-0,17; 2,23</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-0,12; 2,35</t>
+          <t>-0,11; 2,26</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>0,29; 2,22</t>
+          <t>0,21; 2,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,38; 2,3</t>
+          <t>0,38; 2,35</t>
         </is>
       </c>
     </row>
@@ -795,32 +795,32 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>1,05; 9,1</t>
+          <t>1,12; 8,94</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>1,08; 8,52</t>
+          <t>1,08; 9,33</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>0,01; 8,38</t>
+          <t>0,23; 9,31</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,52; 8,61</t>
+          <t>0,6; 9,63</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>1,44; 7,09</t>
+          <t>1,44; 7,06</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>1,35; 7,13</t>
+          <t>1,46; 7,12</t>
         </is>
       </c>
     </row>
@@ -871,32 +871,32 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>1,06; 10,01</t>
+          <t>1,13; 9,82</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>1,09; 9,31</t>
+          <t>1,09; 10,28</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>0,01; 9,17</t>
+          <t>0,23; 10,26</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>0,52; 9,45</t>
+          <t>0,61; 10,64</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>1,47; 7,64</t>
+          <t>1,47; 7,62</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1,37; 7,7</t>
+          <t>1,49; 7,7</t>
         </is>
       </c>
     </row>
@@ -951,32 +951,32 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,05</t>
+          <t>0,0; 11,59</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,9</t>
+          <t>0,0; 11,04</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 20,55</t>
+          <t>0,0; 20,38</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,0; 19,96</t>
+          <t>0,0; 20,8</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>1,16; 10,24</t>
+          <t>1,14; 9,89</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>1,15; 10,34</t>
+          <t>1,16; 11,2</t>
         </is>
       </c>
     </row>
@@ -1027,32 +1027,32 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 9,96</t>
+          <t>0,0; 13,11</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 10,98</t>
+          <t>0,0; 12,41</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 25,87</t>
+          <t>0,0; 25,6</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 24,94</t>
+          <t>0,0; 26,25</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,17; 11,41</t>
+          <t>1,16; 10,98</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>1,16; 11,53</t>
+          <t>1,18; 12,61</t>
         </is>
       </c>
     </row>
@@ -1107,32 +1107,32 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>0,84; 3,97</t>
+          <t>0,75; 3,82</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>1,14; 4,2</t>
+          <t>1,19; 4,05</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,48; 2,96</t>
+          <t>0,48; 3,08</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>0,45; 2,95</t>
+          <t>0,58; 3,07</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>0,9; 2,79</t>
+          <t>0,93; 2,78</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,09; 2,9</t>
+          <t>1,08; 2,94</t>
         </is>
       </c>
     </row>
@@ -1183,32 +1183,32 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>0,86; 4,14</t>
+          <t>0,76; 3,97</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>1,16; 4,39</t>
+          <t>1,2; 4,22</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>0,48; 3,06</t>
+          <t>0,48; 3,18</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>0,44; 3,04</t>
+          <t>0,59; 3,18</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>0,91; 2,87</t>
+          <t>0,94; 2,88</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>1,1; 2,99</t>
+          <t>1,1; 3,04</t>
         </is>
       </c>
     </row>
